--- a/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
+++ b/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58377B73-20C8-495D-BA03-FFCA6DAF961D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B56600-62ED-43B4-A5B8-60BAD5E8CF57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
   <si>
     <t>Device</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>DC Units on UI after removing Isolator Jumper On</t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>Current (worst case)</t>
   </si>
 </sst>
 </file>
@@ -607,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,6 +644,9 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
+      <c r="E1" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
@@ -655,6 +667,9 @@
         <v>14</v>
       </c>
       <c r="D2" s="21"/>
+      <c r="E2" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="8"/>
       <c r="L2"/>
@@ -669,6 +684,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="17" t="s">
         <v>27</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -895,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,6 +941,9 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
+      <c r="E1" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="F1" s="4" t="s">
         <v>49</v>
       </c>
@@ -941,6 +962,9 @@
         <v>14</v>
       </c>
       <c r="D2" s="21"/>
+      <c r="E2" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>50</v>
       </c>
@@ -960,6 +984,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="17" t="s">
         <v>27</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>

--- a/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
+++ b/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B56600-62ED-43B4-A5B8-60BAD5E8CF57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A4C976-27D7-4D53-A7B7-7B3A25D7F806}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="54">
   <si>
     <t>Device</t>
   </si>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,8 +883,8 @@
       <c r="I10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>10</v>
+      <c r="J10" s="13">
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +948,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="8">
-        <v>340.5</v>
+        <v>300.5</v>
       </c>
       <c r="H1" s="3"/>
       <c r="K1" s="6"/>
@@ -1142,7 +1142,7 @@
         <v>1.2</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="J9" s="13">
         <v>17</v>

--- a/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
+++ b/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A4C976-27D7-4D53-A7B7-7B3A25D7F806}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
     <sheet name="Other Devices Loop A" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,11 +612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +795,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>10</v>
@@ -910,11 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1100,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>10</v>
@@ -1145,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="13">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>10</v>
@@ -1171,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BBC60A-BF31-4485-9863-83BC968AF97D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
+++ b/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
@@ -31,8 +31,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4BI 4" [517.050.043]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
   <si>
     <t>Device</t>
   </si>
@@ -194,13 +228,16 @@
   </si>
   <si>
     <t>Current (worst case)</t>
+  </si>
+  <si>
+    <t>Assign Base/Default Base row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +259,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -612,11 +662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>16</v>
@@ -791,8 +841,8 @@
       <c r="H8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>41</v>
+      <c r="I8" s="13">
+        <v>4</v>
       </c>
       <c r="J8" s="13">
         <v>6</v>
@@ -883,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="13">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
@@ -905,6 +955,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -913,7 +964,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +998,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="8">
-        <v>300.5</v>
+        <v>340.5</v>
       </c>
       <c r="H1" s="3"/>
       <c r="K1" s="6"/>

--- a/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
+++ b/Test Data/TC_63799_Verify_Trip_Current_Calculation_On_Addition_Deletion_Of_Isolator_Base.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F849D2B6-B5A0-4BE7-BFE9-F4EBF030E332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -21,23 +22,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
   <si>
     <t>Device</t>
   </si>
@@ -231,12 +226,30 @@
   </si>
   <si>
     <t>Assign Base/Default Base row</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,11 +355,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -662,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,61 +692,72 @@
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="10" width="54.44140625" customWidth="1"/>
     <col min="11" max="11" width="26.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.44140625" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="8">
-        <v>340.9</v>
-      </c>
-      <c r="H1" s="5"/>
+      <c r="G1" s="7">
+        <v>341</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="L1"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="17">
+        <v>2</v>
+      </c>
       <c r="L2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -743,15 +766,18 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
+      <c r="H3" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -760,12 +786,18 @@
       <c r="G4" s="1">
         <v>220</v>
       </c>
+      <c r="H4" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="L4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="16" t="s">
         <v>30</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="L5"/>
     </row>
@@ -773,178 +805,178 @@
       <c r="L6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12">
         <v>4</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>6</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="13" t="s">
+      <c r="K8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="14">
         <v>1.2</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="I9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="14">
         <v>1</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="15">
+      <c r="M9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="14">
         <v>1.2</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="13">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="15">
+      <c r="I10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="12">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="14">
         <v>1</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="M10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="14">
         <v>10</v>
       </c>
     </row>
@@ -960,11 +992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,57 +1017,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="8">
-        <v>340.5</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="K1" s="6"/>
+      <c r="G1" s="7">
+        <v>341</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="8">
-        <v>300.5</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="12"/>
+      <c r="G2" s="7">
+        <v>325</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="17">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1044,16 +1087,19 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
+      <c r="H3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1062,151 +1108,157 @@
       <c r="G4" s="1">
         <v>220</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
+      <c r="H4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
+      <c r="H5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>6</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="13" t="s">
+      <c r="K8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="14">
         <v>1.2</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="13">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="I9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12">
+        <v>9</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="14">
         <v>1</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="15">
+      <c r="M9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="14">
         <v>10</v>
       </c>
     </row>
@@ -1221,7 +1273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1231,228 +1283,228 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="14">
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="13">
         <v>1.3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>13</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="13">
         <v>0.3</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="13">
         <v>1</v>
       </c>
-      <c r="M1" s="14">
+      <c r="M1" s="13">
         <v>0</v>
       </c>
-      <c r="N1" s="14">
-        <v>10</v>
-      </c>
-      <c r="P1" s="19">
+      <c r="N1" s="13">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18">
         <v>274.5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14">
         <v>1.2</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="I2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="14">
         <v>1</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="15">
+      <c r="M2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L3" s="6"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13">
         <v>1.3</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="I6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="12">
         <v>13</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>0</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>1</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>0</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14">
         <v>0.6</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="I7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="14">
         <v>1</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="15">
+      <c r="M7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="14">
         <v>1.2</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="I12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="14">
         <v>1</v>
       </c>
-      <c r="M12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="15">
+      <c r="M12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="14">
         <v>10</v>
       </c>
     </row>
